--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1880911.438833209</v>
+        <v>1923421.552199282</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5978656.774742284</v>
+        <v>6061620.991061335</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>145.0957330319262</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>155.1591605556317</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -753,7 +753,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>20.34197294634657</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>43.4271381696468</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>220.479018795076</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.5653028698686</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>159.5828560759984</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>34.06158462965202</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>332.4291174559668</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>315.8867293176938</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>146.9399060518612</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480023404</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038659</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>155.5776225602631</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>28.46824604904414</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>39.47142524088588</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170487</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2090,7 +2090,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948852</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170482</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.5168019860618</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3199,13 +3199,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>94.21878984361696</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800578</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>2.00851315945539</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3487,10 +3487,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800052</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3673,7 +3673,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>24.34318456170539</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.412621479130776</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>211.4785282930092</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225616</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4028,13 +4028,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>90.97964783088871</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225779</v>
+        <v>18.05677735225526</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1072.077256853988</v>
+        <v>1351.042333103999</v>
       </c>
       <c r="C2" t="n">
-        <v>643.4955825912566</v>
+        <v>1204.480986607104</v>
       </c>
       <c r="D2" t="n">
-        <v>214.9139083285249</v>
+        <v>775.899312344372</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1113.68420233872</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X2" t="n">
-        <v>1098.582142958435</v>
+        <v>1377.547219208445</v>
       </c>
       <c r="Y2" t="n">
-        <v>1094.336423298492</v>
+        <v>1373.301499548503</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>718.5617128800624</v>
+        <v>947.1238364150125</v>
       </c>
       <c r="C4" t="n">
-        <v>546.0000013632873</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>269.215608100497</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1655.218161365237</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1655.218161365237</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1655.218161365237</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1655.218161365237</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.191756951529</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="X4" t="n">
-        <v>1137.800002284941</v>
+        <v>1366.362125819891</v>
       </c>
       <c r="Y4" t="n">
-        <v>910.3803315990494</v>
+        <v>1138.942455134</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.6683834787607</v>
+        <v>1783.901035373299</v>
       </c>
       <c r="C5" t="n">
-        <v>516.086709216029</v>
+        <v>1345.758562556722</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>909.8487777311664</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>880.1144369298656</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>452.2470073390733</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233721</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233721</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717429</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717429</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717429</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717429</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762209</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720804</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657697</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657697</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2437.967455657697</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>2437.967455657697</v>
       </c>
       <c r="W5" t="n">
-        <v>1437.146076848872</v>
+        <v>2033.112001068731</v>
       </c>
       <c r="X5" t="n">
-        <v>1422.044017468586</v>
+        <v>1810.405921477745</v>
       </c>
       <c r="Y5" t="n">
-        <v>1370.967953963669</v>
+        <v>1806.160201817802</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070809</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326474</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993482</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760928</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.1384727187784</v>
+        <v>593.0357356940449</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>420.4740241772698</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>254.5960313787925</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>84.83802762952976</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>84.83802762952976</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>84.83802762952976</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>84.83802762952976</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.4007229285739</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179232</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477229</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055684</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1816.647692308789</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1529.69218417922</v>
       </c>
       <c r="W7" t="n">
-        <v>859.7685167902448</v>
+        <v>1257.665779765511</v>
       </c>
       <c r="X7" t="n">
-        <v>614.3767621236573</v>
+        <v>1012.274025098924</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.9570914377655</v>
+        <v>784.8543544130321</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>1557.262375348432</v>
       </c>
       <c r="C8" t="n">
-        <v>822.1393557439876</v>
+        <v>1523.160306572259</v>
       </c>
       <c r="D8" t="n">
-        <v>486.3523684147282</v>
+        <v>1491.290925787107</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>1583.767261452878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>1579.521541792935</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>813.4916901053949</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>726.6741060804052</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>454.6477016666967</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>209.2559470001092</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940405</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940405</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247378</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.8119928040999</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>612.2502812873247</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>446.3722884888473</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>276.6142847395846</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>99.90723070134084</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587284</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165739</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418844</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289275</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875566</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.050282208979</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>976.6306115230871</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526435</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847305</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004238</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3598.448757555621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3598.448757555621</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3598.448757555621</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353821</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.229814098727</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819522</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834749</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458048</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169404</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849015</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177142</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.22255580238</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.528123727751</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423112</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137113</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4798.236621447623</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068556</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252393</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4805.645420746447</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.423118063463</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.80616799729</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408323</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987634</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287287</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493062</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958595</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228132</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389748</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051587</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137113</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480411</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.077185838983</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>635.5154743222081</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>469.6374815237308</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>299.8794777744681</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>123.1724237362245</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137113</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137113</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137113</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.163033586061</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622167</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200622</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453728</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324158</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.70722991045</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243862</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.8958045579702</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,40 +5759,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883919</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716169</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731396</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238769</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>126.849915585633</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,40 +5999,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6148,10 +6148,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1008.757289365886</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
         <v>1008.757289365886</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752035</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.60800300514</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795275</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109383</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903955</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736204</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751432</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258804</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>286.0912842876366</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
         <v>793.2056155771594</v>
@@ -6938,37 +6938,37 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O35" t="n">
-        <v>3749.802995757414</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>4578.11287059081</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
         <v>4187.483659846699</v>
@@ -6993,16 +6993,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1017.756527079656</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>845.1948155628805</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>679.3168227644032</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>509.5588190151406</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>332.8517649768968</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008509</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.966900465231</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1209.575145798643</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,49 +7172,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>475.2748675296854</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136696</v>
@@ -7230,16 +7230,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883926</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716175</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731402</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>126.8499155856335</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050032</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093272</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.57329640738</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538672</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.58362889654</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054835</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640431</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873074</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.677629643639</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2496.531034410829</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410829</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981135</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814531</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773127</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526183</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526183</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.058751482739</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.836448799756</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.219498733582</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144615</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723926</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.93545702358</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218164</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584587</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223588</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015795</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.909505607455</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>778.3477940906799</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4698012922026</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>442.7117975429398</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>266.004743504696</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952134</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663489</v>
+        <v>463.598980006603</v>
       </c>
       <c r="L43" t="n">
-        <v>879.96149003431</v>
+        <v>881.8088617745641</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955477</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338903</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309245</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="S43" t="n">
-        <v>2698.833909390639</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2452.954462969094</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2174.521462222199</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1887.56595409263</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1615.539549678922</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1370.147795012334</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1142.728124326442</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397516</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>96.73597668111516</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>931.0862686392932</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2006.146234892153</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3163.194070102703</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>4288.925053539151</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O44" t="n">
-        <v>4836.798834055758</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P44" t="n">
-        <v>4836.798834055758</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055758</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239595</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112633</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.85743042965</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.958796257035</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>947.2320137580464</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>774.6703022412712</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>608.7923094427938</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>439.0343056935313</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>262.3272516552875</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338902</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309244</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.15641754123</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2449.276971119685</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2170.843970372791</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1883.888462243221</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1611.862057829513</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1366.470303162925</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1139.050632477034</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>236.2898988798406</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,13 +8134,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611405</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741731</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,13 +8617,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,16 +8933,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>527.9769957459462</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504367</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,16 +9407,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,13 +10124,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-5.681602616057837e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,16 +10586,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,10 +10604,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>540.3324676244147</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>376.7818457160665</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365287932</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,22 +11303,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O44" t="n">
-        <v>553.4078591076841</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444072</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>178.3951296148059</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.3836305457355</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>81.78272691405301</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>69.71657238081364</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>161.9268490649752</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.388026562682569</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627272</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>268.011132734623</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627255</v>
+        <v>139.592177662728</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>507061.1742827723</v>
+        <v>515516.0558982892</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>507061.1742827723</v>
+        <v>517038.3759289061</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>506550.3162524271</v>
+        <v>527927.3184424572</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>506550.316252427</v>
+        <v>527927.3184424572</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>513698.2338609502</v>
+        <v>527927.3184424572</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>520779.400833934</v>
+        <v>527927.3184424572</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506550.3162524268</v>
+        <v>527927.3184424572</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068472</v>
       </c>
       <c r="C2" t="n">
         <v>455725.2219068473</v>
@@ -26320,19 +26320,19 @@
         <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
-        <v>429695.3132759249</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="F2" t="n">
-        <v>429695.313275925</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="G2" t="n">
-        <v>435758.7320470116</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="H2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="I2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="J2" t="n">
         <v>447828.9465167495</v>
@@ -26347,13 +26347,13 @@
         <v>447828.9465167495</v>
       </c>
       <c r="N2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="O2" t="n">
-        <v>441765.5277456627</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="P2" t="n">
-        <v>429695.3132759248</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501669</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998227</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850648</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996325</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877293</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726621903</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379875</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511645</v>
+        <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154981.0317940151</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>52352.490199087</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
-        <v>52352.49019908699</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
-        <v>53091.23475128191</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.8251096228</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962279</v>
       </c>
       <c r="O4" t="n">
-        <v>53823.08055742783</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="P4" t="n">
-        <v>52352.49019908697</v>
+        <v>54561.82510962275</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800268</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024205</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319797</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579249</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60412.45345875054</v>
+        <v>60412.45345875045</v>
       </c>
       <c r="C6" t="n">
-        <v>202603.7541184605</v>
+        <v>162200.2084098128</v>
       </c>
       <c r="D6" t="n">
-        <v>202603.7541184606</v>
+        <v>221974.9075493182</v>
       </c>
       <c r="E6" t="n">
-        <v>69468.45877715305</v>
+        <v>133170.5492409019</v>
       </c>
       <c r="F6" t="n">
-        <v>303823.4807991905</v>
+        <v>315525.6584619516</v>
       </c>
       <c r="G6" t="n">
-        <v>301414.941452637</v>
+        <v>315525.6584619516</v>
       </c>
       <c r="H6" t="n">
-        <v>303146.127821371</v>
+        <v>315525.6584619516</v>
       </c>
       <c r="I6" t="n">
-        <v>315548.8828013341</v>
+        <v>315525.6584619516</v>
       </c>
       <c r="J6" t="n">
-        <v>204534.417456344</v>
+        <v>204511.1931169614</v>
       </c>
       <c r="K6" t="n">
-        <v>315548.8828013343</v>
+        <v>262479.8038231788</v>
       </c>
       <c r="L6" t="n">
-        <v>315548.8828013343</v>
+        <v>306133.3567353297</v>
       </c>
       <c r="M6" t="n">
-        <v>119947.7035182665</v>
+        <v>163325.4875239641</v>
       </c>
       <c r="N6" t="n">
-        <v>315548.8828013342</v>
+        <v>315525.6584619516</v>
       </c>
       <c r="O6" t="n">
-        <v>311628.2111050369</v>
+        <v>315525.6584619517</v>
       </c>
       <c r="P6" t="n">
-        <v>303823.4807991904</v>
+        <v>315525.6584619517</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483608</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939177</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319936</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760633</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483608</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939177</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483608</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939177</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319936</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760633</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,13 +27379,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>288.6653150564848</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>274.2778368376561</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>137.3069820686367</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27594,13 +27594,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>199.5106989502748</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>194.4720199914064</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>353.6379595934745</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11.25323832560895</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27792,7 +27792,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>53.71176510341939</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>99.12156952133313</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>113.550268075594</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6.216138714876251e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>236.2898988798406</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -34875,7 +34875,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611405</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741731</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,22 +35647,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>527.9769957459462</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908047</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504367</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,16 +36127,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36516,19 +36516,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36832,7 +36832,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,16 +36841,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-2.268258214386391e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,16 +37306,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37324,10 +37324,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>540.3324676244147</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>376.7818457160665</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,13 +37707,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365287932</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908048</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960945</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O44" t="n">
-        <v>553.4078591076841</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512916</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
